--- a/data/trans_orig/IP44S1_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP44S1_2023-Habitat-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{914C3506-2765-4FB8-991D-3066D62BD54C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AC22DC4E-DF09-4FDD-B334-9383B784D642}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{95C86CAF-F6C3-4FAD-B308-62BC42131B3E}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{567BC682-616A-4523-AC0B-6B9C26087B66}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -65,7 +65,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Ninguna</t>
@@ -113,7 +113,7 @@
     <t>Hipoteca</t>
   </si>
   <si>
-    <t>2/10</t>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>90,01%</t>
@@ -122,13 +122,13 @@
     <t>76,36%</t>
   </si>
   <si>
-    <t>31,96%</t>
+    <t>30,81%</t>
   </si>
   <si>
     <t>92,67%</t>
   </si>
   <si>
-    <t>77,02%</t>
+    <t>76,8%</t>
   </si>
   <si>
     <t>9,99%</t>
@@ -137,13 +137,13 @@
     <t>23,64%</t>
   </si>
   <si>
-    <t>68,04%</t>
+    <t>69,19%</t>
   </si>
   <si>
     <t>7,33%</t>
   </si>
   <si>
-    <t>22,98%</t>
+    <t>23,2%</t>
   </si>
   <si>
     <t>20,75%</t>
@@ -152,37 +152,37 @@
     <t>7,06%</t>
   </si>
   <si>
-    <t>10/50</t>
+    <t>10-50.000 hab</t>
   </si>
   <si>
     <t>88,32%</t>
   </si>
   <si>
-    <t>68,27%</t>
-  </si>
-  <si>
-    <t>97,93%</t>
+    <t>68,84%</t>
+  </si>
+  <si>
+    <t>97,59%</t>
   </si>
   <si>
     <t>95,65%</t>
   </si>
   <si>
-    <t>77,84%</t>
+    <t>77,16%</t>
   </si>
   <si>
     <t>91,15%</t>
   </si>
   <si>
-    <t>77,36%</t>
-  </si>
-  <si>
-    <t>97,58%</t>
+    <t>79,43%</t>
+  </si>
+  <si>
+    <t>97,68%</t>
   </si>
   <si>
     <t>6,57%</t>
   </si>
   <si>
-    <t>21,68%</t>
+    <t>22,29%</t>
   </si>
   <si>
     <t>12,61%</t>
@@ -191,7 +191,7 @@
     <t>4,03%</t>
   </si>
   <si>
-    <t>14,21%</t>
+    <t>14,18%</t>
   </si>
   <si>
     <t>9,05%</t>
@@ -203,22 +203,22 @@
     <t>5,11%</t>
   </si>
   <si>
-    <t>24,88%</t>
+    <t>21,81%</t>
   </si>
   <si>
     <t>4,35%</t>
   </si>
   <si>
-    <t>22,16%</t>
+    <t>22,84%</t>
   </si>
   <si>
     <t>4,82%</t>
   </si>
   <si>
-    <t>17,7%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
+    <t>16,15%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
   </si>
   <si>
     <t>87,85%</t>
@@ -230,7 +230,7 @@
     <t>91,88%</t>
   </si>
   <si>
-    <t>55,6%</t>
+    <t>48,59%</t>
   </si>
   <si>
     <t>30,57%</t>
@@ -248,7 +248,7 @@
     <t>8,12%</t>
   </si>
   <si>
-    <t>44,4%</t>
+    <t>51,41%</t>
   </si>
   <si>
     <t>Capitales</t>
@@ -257,40 +257,40 @@
     <t>79,01%</t>
   </si>
   <si>
-    <t>36,76%</t>
+    <t>34,3%</t>
   </si>
   <si>
     <t>89,54%</t>
   </si>
   <si>
-    <t>65,01%</t>
+    <t>63,0%</t>
   </si>
   <si>
     <t>84,71%</t>
   </si>
   <si>
-    <t>63,48%</t>
-  </si>
-  <si>
-    <t>96,04%</t>
+    <t>63,5%</t>
+  </si>
+  <si>
+    <t>95,02%</t>
   </si>
   <si>
     <t>12,3%</t>
   </si>
   <si>
-    <t>55,68%</t>
+    <t>56,69%</t>
   </si>
   <si>
     <t>4,23%</t>
   </si>
   <si>
-    <t>19,44%</t>
+    <t>19,76%</t>
   </si>
   <si>
     <t>7,93%</t>
   </si>
   <si>
-    <t>32,19%</t>
+    <t>27,92%</t>
   </si>
   <si>
     <t>13,49%</t>
@@ -302,85 +302,85 @@
     <t>6,24%</t>
   </si>
   <si>
-    <t>34,63%</t>
+    <t>33,12%</t>
   </si>
   <si>
     <t>3,38%</t>
   </si>
   <si>
-    <t>15,83%</t>
+    <t>16,07%</t>
   </si>
   <si>
     <t>8,7%</t>
   </si>
   <si>
-    <t>41,92%</t>
+    <t>46,28%</t>
   </si>
   <si>
     <t>3,99%</t>
   </si>
   <si>
-    <t>20,14%</t>
+    <t>21,09%</t>
   </si>
   <si>
     <t>89,82%</t>
   </si>
   <si>
-    <t>78,04%</t>
-  </si>
-  <si>
-    <t>95,76%</t>
+    <t>78,46%</t>
+  </si>
+  <si>
+    <t>95,88%</t>
   </si>
   <si>
     <t>90,55%</t>
   </si>
   <si>
-    <t>78,97%</t>
-  </si>
-  <si>
-    <t>96,45%</t>
+    <t>77,71%</t>
+  </si>
+  <si>
+    <t>96,55%</t>
   </si>
   <si>
     <t>90,12%</t>
   </si>
   <si>
-    <t>82,43%</t>
-  </si>
-  <si>
-    <t>94,7%</t>
+    <t>83,09%</t>
+  </si>
+  <si>
+    <t>95,15%</t>
   </si>
   <si>
     <t>5,2%</t>
   </si>
   <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>16,48%</t>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>17,07%</t>
   </si>
   <si>
     <t>5,7%</t>
   </si>
   <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>18,01%</t>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>17,41%</t>
   </si>
   <si>
     <t>5,41%</t>
   </si>
   <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>11,34%</t>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>11,54%</t>
   </si>
   <si>
     <t>1,11%</t>
   </si>
   <si>
-    <t>6,72%</t>
+    <t>6,38%</t>
   </si>
   <si>
     <t>4,78%</t>
@@ -389,40 +389,40 @@
     <t>0,66%</t>
   </si>
   <si>
-    <t>3,34%</t>
+    <t>4,06%</t>
   </si>
   <si>
     <t>2,1%</t>
   </si>
   <si>
-    <t>10,19%</t>
+    <t>11,21%</t>
   </si>
   <si>
     <t>3,75%</t>
   </si>
   <si>
-    <t>12,0%</t>
+    <t>13,28%</t>
   </si>
   <si>
     <t>2,77%</t>
   </si>
   <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>7,68%</t>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>7,83%</t>
   </si>
   <si>
     <t>1,77%</t>
   </si>
   <si>
-    <t>10,62%</t>
+    <t>9,13%</t>
   </si>
   <si>
     <t>1,04%</t>
   </si>
   <si>
-    <t>4,49%</t>
+    <t>5,23%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
@@ -837,7 +837,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C243495-42EE-4319-8A18-9DF1EC7F1644}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E620F12-8B6E-4CAE-AAEA-9161EFD6C897}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
